--- a/xls2rdf-lib/src/test/resources/suite/_47_copyTo/input.xlsx
+++ b/xls2rdf-lib/src/test/resources/suite/_47_copyTo/input.xlsx
@@ -24,7 +24,7 @@
     <t>URI</t>
   </si>
   <si>
-    <t>skos:prefLabel@fr(copyTo="skos:note")</t>
+    <t xml:space="preserve">skos:prefLabel@fr(id="prefLabel" copyTo="skos:note")</t>
   </si>
   <si>
     <t>skos:altLabel</t>
